--- a/original_workbook/uniformity_multi.xlsx
+++ b/original_workbook/uniformity_multi.xlsx
@@ -1,45 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ginxserver\htdocs\NQCL_NQCL\original_workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ginxserver\htdocs\NQCL_LIMS\original_workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="315" windowWidth="14940" windowHeight="8640"/>
   </bookViews>
   <sheets>
-    <sheet name="uniformity" sheetId="37" r:id="rId1"/>
+    <sheet name="Uniformity" sheetId="38" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
-    <t>Intact Capsule</t>
+    <t>Please enter the required information in the cells highlighted in green</t>
   </si>
   <si>
-    <t>Empty Shell</t>
+    <t>Uniformity of Weight Test Report</t>
   </si>
   <si>
-    <t>Capsule Content</t>
+    <t>Sample Name:</t>
+  </si>
+  <si>
+    <t>Laboratory Ref No:</t>
+  </si>
+  <si>
+    <t>Active Ingredient:</t>
+  </si>
+  <si>
+    <t>Label Claim:</t>
+  </si>
+  <si>
+    <t>Date Analysis Started:</t>
+  </si>
+  <si>
+    <t>Date Analysis Completed:</t>
+  </si>
+  <si>
+    <t>Analysis Data</t>
+  </si>
+  <si>
+    <t>Uniformity of weight</t>
+  </si>
+  <si>
+    <t>Capsule No.</t>
+  </si>
+  <si>
+    <t>Intact Capsule (mg)</t>
+  </si>
+  <si>
+    <t>Empty Shell (mg)</t>
+  </si>
+  <si>
+    <t>Capsule Content (mg)</t>
+  </si>
+  <si>
+    <t>% Deviation</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>% Deviation from mean</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Analysed by:</t>
+  </si>
+  <si>
+    <t>Reviewed By:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="168" formatCode="0.0000\ &quot;mg&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00\ &quot;mg&quot;"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -51,11 +117,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
@@ -175,6 +236,33 @@
       <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="25">
@@ -301,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -416,54 +504,381 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -475,23 +890,17 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -500,25 +909,10 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="24" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="24" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
@@ -526,7 +920,172 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="24" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="24" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="24" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="24" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="24" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="24" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="24" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="24" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="25" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="28" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="31" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="42" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="26" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="29" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -591,6 +1150,36 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Uniformity"/>
+      <sheetName val="SST"/>
+      <sheetName val="Component 1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="18">
+          <cell r="B18"/>
+        </row>
+        <row r="19">
+          <cell r="B19"/>
+        </row>
+        <row r="20">
+          <cell r="B20"/>
+        </row>
+        <row r="21">
+          <cell r="B21"/>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -880,679 +1469,985 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="4">
-        <f>A2-B2</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="e">
-        <f>(C2-$C$24)/$C$24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="13"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="4">
-        <f t="shared" ref="C3:C21" si="0">A3-B3</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="e">
-        <f t="shared" ref="D3:D21" si="1">(C3-$C$24)/$C$24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="18"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="23">
+        <f>'[1]Component 1'!B18</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="18"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="23">
+        <f>'[1]Component 1'!B19</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="18"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="23">
+        <f>'[1]Component 1'!B20</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="13"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="18"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="75">
+        <f>'[1]Component 1'!B21</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="18"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="13"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="18"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="13"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="18"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="71"/>
+      <c r="C18" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="13"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="18"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="27"/>
+      <c r="B19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="13"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="4">
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="32">
+        <v>1</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35">
+        <f>B21-C21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="36" t="e">
+        <f t="shared" ref="E21:E40" si="0">(D21-$D$43)/$D$43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="37">
+        <v>2</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40">
+        <f t="shared" ref="D22:D40" si="1">B22-C22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="36" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
+        <v>3</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="36" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="13"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="4">
+      <c r="G23" s="4"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
+        <v>4</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="36" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="37">
+        <v>5</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="36" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="13"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <f>SUM(A2:A21)</f>
-        <v>0</v>
-      </c>
-      <c r="B23" s="6">
-        <f>SUM(B2:B21)</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="6">
-        <f>SUM(C2:C21)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-    </row>
-    <row r="24" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="e">
-        <f>AVERAGE(A2:A21)</f>
+      <c r="G25" s="4"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
+        <v>6</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="36" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="B24" s="8" t="e">
-        <f>AVERAGE(B2:B21)</f>
+      <c r="G26" s="4"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="37">
+        <v>7</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="36" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C24" s="8">
-        <f>AVERAGE(C2:C21)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="e">
-        <f>A24*0.95</f>
+      <c r="G27" s="4"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="11"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="37">
+        <v>8</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="36" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="B25" s="20" t="e">
-        <f>B24*0.95</f>
+      <c r="G28" s="4"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="37">
+        <v>9</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="36" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C25" s="10">
-        <f>IF(C24&lt;300, C24*0.9, C24*0.925)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="20"/>
-    </row>
-    <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="e">
-        <f>A24*1.05</f>
+      <c r="G29" s="4"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="37">
+        <v>10</v>
+      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="36" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="B26" s="1" t="e">
-        <f>B24*1.05</f>
+      <c r="G30" s="4"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
+        <v>11</v>
+      </c>
+      <c r="B31" s="41"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="36" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C26" s="10">
-        <f>IF(C24&lt;300, C24*1.1, C24*1.075)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="21"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="12"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G27" s="22"/>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="37">
+        <v>12</v>
+      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="37">
+        <v>13</v>
+      </c>
+      <c r="B33" s="41"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="37">
+        <v>14</v>
+      </c>
+      <c r="B34" s="41"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="14"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="37">
+        <v>15</v>
+      </c>
+      <c r="B35" s="41"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="10"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="37">
+        <v>16</v>
+      </c>
+      <c r="B36" s="41"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="37">
+        <v>17</v>
+      </c>
+      <c r="B37" s="41"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="37">
+        <v>18</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="37">
+        <v>19</v>
+      </c>
+      <c r="B39" s="41"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="42">
+        <v>20</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="46" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="23"/>
+      <c r="D41" s="11"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="48">
+        <f>SUM(B21:B40)</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="49">
+        <f>SUM(C21:C40)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="50">
+        <f>SUM(D21:D40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="52" t="e">
+        <f>AVERAGE(B21:B40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C43" s="53" t="e">
+        <f>AVERAGE(C21:C40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="54">
+        <f>AVERAGE(D21:D40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="23"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="23"/>
+    </row>
+    <row r="46" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="72">
+        <f>D43</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="58">
+        <f>-(IF(D43&gt;300, 7.5%, 10%))</f>
+        <v>-0.1</v>
+      </c>
+      <c r="D47" s="59">
+        <f>IF(D43&lt;300, D43*0.9, D43*0.925)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="73"/>
+      <c r="C48" s="60">
+        <f>+(IF(D43&gt;300, 7.5%, 10%))</f>
+        <v>0.1</v>
+      </c>
+      <c r="D48" s="59">
+        <f>IF(D43&lt;300, D43*1.1, D43*1.075)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="61"/>
+      <c r="D49" s="62"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B50" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="74"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="64"/>
+      <c r="G50" s="63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A51" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="67"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A52" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="69"/>
     </row>
   </sheetData>
-  <sheetProtection password="AD9C" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <conditionalFormatting sqref="D2:D21">
+  <mergeCells count="12">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B50:C50"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E21:E40">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
-      <formula>IF(+$A$24&lt;300, -10.5%, -7.5%)</formula>
-      <formula>IF(+$A$24&lt;300, 10.5%, 7.5%)</formula>
+      <formula>IF(+$D$43&lt;300, -10.5%, -7.5%)</formula>
+      <formula>IF(+$D$43&lt;300, 10.5%, 7.5%)</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>